--- a/CSC3510 S2021/Lectures/04 IntroToUnitTesting.xlsx
+++ b/CSC3510 S2021/Lectures/04 IntroToUnitTesting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\Lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF55BCA-72EE-40B7-BF7B-F715ECDC4178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8489DD1B-D99C-415E-A26A-8EC9F5793B25}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3117,6 +3116,10 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1800"/>
           </a:br>
@@ -3184,7 +3187,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -3591,14 +3599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DF36A-C0D6-4A4C-A7F2-C872AA3FA5C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3606,16 +3614,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A28207E-5D46-4CEB-94C0-349D8487B1D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3623,14 +3631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925072E7-9349-4864-B4D2-7F493DC041F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3638,14 +3646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43C341-86D0-421B-BABD-835817BFB804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3653,14 +3661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D318CF9-8A34-42BF-B19F-CD2597888A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3668,14 +3676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0377EE10-948B-4F79-8175-6BC164F29245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3683,14 +3691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ABADC9-F57B-42E9-865A-449FA4B44B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CSC3510 S2021/Lectures/04 IntroToUnitTesting.xlsx
+++ b/CSC3510 S2021/Lectures/04 IntroToUnitTesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -3041,10 +3041,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>382905</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4919387" cy="3192221"/>
     <xdr:sp macro="" textlink="">
@@ -3060,7 +3060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8260080" y="23522940"/>
+          <a:off x="10136505" y="24364950"/>
           <a:ext cx="4919387" cy="3192221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3602,7 +3602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,7 +3664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
